--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H2">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>15.12548333004611</v>
+        <v>0.163326269726</v>
       </c>
       <c r="R2">
-        <v>136.129349970415</v>
+        <v>1.469936427534</v>
       </c>
       <c r="S2">
-        <v>0.006531390443759643</v>
+        <v>9.877247266633089E-05</v>
       </c>
       <c r="T2">
-        <v>0.006531390443759643</v>
+        <v>9.877247266633086E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H3">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J3">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.04916484419677778</v>
+        <v>0.08850165689799998</v>
       </c>
       <c r="R3">
-        <v>0.442483597771</v>
+        <v>0.7965149120819999</v>
       </c>
       <c r="S3">
-        <v>2.123005173116588E-05</v>
+        <v>5.352187067976077E-05</v>
       </c>
       <c r="T3">
-        <v>2.123005173116589E-05</v>
+        <v>5.352187067976076E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H4">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J4">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>1.257977058521555</v>
+        <v>3.008133790961999</v>
       </c>
       <c r="R4">
-        <v>11.321793526694</v>
+        <v>27.073204118658</v>
       </c>
       <c r="S4">
-        <v>0.00054321168846057</v>
+        <v>0.001819185689741873</v>
       </c>
       <c r="T4">
-        <v>0.00054321168846057</v>
+        <v>0.001819185689741872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H5">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J5">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>34.01938909383323</v>
+        <v>59.96983045683799</v>
       </c>
       <c r="R5">
-        <v>306.174501844499</v>
+        <v>539.7284741115419</v>
       </c>
       <c r="S5">
-        <v>0.0146900372028856</v>
+        <v>0.03626708948621499</v>
       </c>
       <c r="T5">
-        <v>0.0146900372028856</v>
+        <v>0.03626708948621498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I6">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J6">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>652.8858143364539</v>
+        <v>3.916402148224778</v>
       </c>
       <c r="R6">
-        <v>5875.972329028085</v>
+        <v>35.24761933402301</v>
       </c>
       <c r="S6">
-        <v>0.2819250185647025</v>
+        <v>0.002368466045204187</v>
       </c>
       <c r="T6">
-        <v>0.2819250185647025</v>
+        <v>0.002368466045204186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I7">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J7">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>2.122182057903222</v>
@@ -883,10 +883,10 @@
         <v>19.099638521129</v>
       </c>
       <c r="S7">
-        <v>0.0009163872195325757</v>
+        <v>0.00128340143725119</v>
       </c>
       <c r="T7">
-        <v>0.0009163872195325759</v>
+        <v>0.001283401437251189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I8">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J8">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>54.30010786087843</v>
+        <v>72.13206828782234</v>
       </c>
       <c r="R8">
-        <v>488.700970747906</v>
+        <v>649.188614590401</v>
       </c>
       <c r="S8">
-        <v>0.02344752877239646</v>
+        <v>0.04362227065662706</v>
       </c>
       <c r="T8">
-        <v>0.02344752877239647</v>
+        <v>0.04362227065662705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>82.78383700000001</v>
       </c>
       <c r="I9">
-        <v>0.9403788801510861</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J9">
-        <v>0.9403788801510863</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>1468.434169481067</v>
+        <v>1438.017125009055</v>
       </c>
       <c r="R9">
-        <v>13215.9075253296</v>
+        <v>12942.1541250815</v>
       </c>
       <c r="S9">
-        <v>0.6340899455944545</v>
+        <v>0.8696488777460998</v>
       </c>
       <c r="T9">
-        <v>0.6340899455944548</v>
+        <v>0.8696488777460996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H10">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I10">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J10">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>24.311045820435</v>
+        <v>0.1830989733982222</v>
       </c>
       <c r="R10">
-        <v>218.799412383915</v>
+        <v>1.647890760584</v>
       </c>
       <c r="S10">
-        <v>0.01049784187947056</v>
+        <v>0.0001107301255061369</v>
       </c>
       <c r="T10">
-        <v>0.01049784187947056</v>
+        <v>0.0001107301255061369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H11">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I11">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J11">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>0.07902218751899999</v>
+        <v>0.09921589802577777</v>
       </c>
       <c r="R11">
-        <v>0.7111996876709999</v>
+        <v>0.8929430822319999</v>
       </c>
       <c r="S11">
-        <v>3.412286068117373E-05</v>
+        <v>6.000136776684475E-05</v>
       </c>
       <c r="T11">
-        <v>3.412286068117373E-05</v>
+        <v>6.000136776684474E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H12">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I12">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J12">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>2.021934588365999</v>
+        <v>3.372306303778666</v>
       </c>
       <c r="R12">
-        <v>18.19741129529399</v>
+        <v>30.350756734008</v>
       </c>
       <c r="S12">
-        <v>0.0008730989919593212</v>
+        <v>0.002039421048256812</v>
       </c>
       <c r="T12">
-        <v>0.0008730989919593213</v>
+        <v>0.002039421048256811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.027521</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H13">
-        <v>3.082562999999999</v>
+        <v>3.870296</v>
       </c>
       <c r="I13">
-        <v>0.03501622112460397</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J13">
-        <v>0.03501622112460398</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>54.679041257511</v>
+        <v>67.22993435124354</v>
       </c>
       <c r="R13">
-        <v>492.1113713175989</v>
+        <v>605.069409161192</v>
       </c>
       <c r="S13">
-        <v>0.02361115739249291</v>
+        <v>0.04065767781390971</v>
       </c>
       <c r="T13">
-        <v>0.02361115739249292</v>
+        <v>0.04065767781390971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H14">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J14">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>1.95719438567</v>
+        <v>0.008416846580777777</v>
       </c>
       <c r="R14">
-        <v>17.61474947103</v>
+        <v>0.07575161922699999</v>
       </c>
       <c r="S14">
-        <v>0.0008451432875372515</v>
+        <v>5.090134919699512E-06</v>
       </c>
       <c r="T14">
-        <v>0.0008451432875372515</v>
+        <v>5.090134919699509E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H15">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J15">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.006361790558</v>
+        <v>0.004560839291222221</v>
       </c>
       <c r="R15">
-        <v>0.05725611502200001</v>
+        <v>0.04104755362099999</v>
       </c>
       <c r="S15">
-        <v>2.747108118732419E-06</v>
+        <v>2.758193002163827E-06</v>
       </c>
       <c r="T15">
-        <v>2.747108118732419E-06</v>
+        <v>2.758193002163826E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H16">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J16">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>0.162778642012</v>
+        <v>0.1550209935943333</v>
       </c>
       <c r="R16">
-        <v>1.465007778108</v>
+        <v>1.395188942349</v>
       </c>
       <c r="S16">
-        <v>7.029004255179113E-05</v>
+        <v>9.374981059808194E-05</v>
       </c>
       <c r="T16">
-        <v>7.029004255179114E-05</v>
+        <v>9.374981059808193E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.082722</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H17">
-        <v>0.248166</v>
+        <v>0.177913</v>
       </c>
       <c r="I17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J17">
-        <v>0.002819029337472899</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>4.402011881902</v>
+        <v>3.090481790083444</v>
       </c>
       <c r="R17">
-        <v>39.61810693711801</v>
+        <v>27.814336110751</v>
       </c>
       <c r="S17">
-        <v>0.001900848899265124</v>
+        <v>0.001868986101555571</v>
       </c>
       <c r="T17">
-        <v>0.001900848899265124</v>
+        <v>0.00186898610155557</v>
       </c>
     </row>
   </sheetData>
